--- a/8.xlsx
+++ b/8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DAE15B-7C77-4C8A-BD51-02C3DC3201E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771393EB-F99C-425F-AB66-9EB0C26C70FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E559155D-9198-479D-B098-A705296734F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>x</t>
   </si>
@@ -103,13 +103,82 @@
   <si>
     <t>rв</t>
   </si>
+  <si>
+    <t>Упарядковані x</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Ранг</t>
+  </si>
+  <si>
+    <t>Упарядковані у</t>
+  </si>
+  <si>
+    <t>Масив рангів</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>ry</t>
+  </si>
+  <si>
+    <t>Упарядкований масив за rx</t>
+  </si>
+  <si>
+    <t>rx-ry</t>
+  </si>
+  <si>
+    <t>(rx-ry)^2</t>
+  </si>
+  <si>
+    <t>В'язок немає</t>
+  </si>
+  <si>
+    <t>τ^с</t>
+  </si>
+  <si>
+    <t>Коефіцієнт рангової кореляції Спірмена</t>
+  </si>
+  <si>
+    <t>t=</t>
+  </si>
+  <si>
+    <t>|t| = 15,3609</t>
+  </si>
+  <si>
+    <t>15,3609&gt;2,10</t>
+  </si>
+  <si>
+    <t>Між показниками існує монотонний зв'язок, при цьому від'ємний</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>τ^k</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>|u|= 5,352331</t>
+  </si>
+  <si>
+    <t>5,35&gt;1,96</t>
+  </si>
+  <si>
+    <t>коефіцієнт  кореляції Кендалла відмінний від нуля і між показниками x та y існує  монотонний  зв’язок,  причому  цей  зв’язок  від'ємний</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -136,7 +205,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +215,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,16 +258,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1535,19 +1622,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CC1073-2B09-49F5-9FFA-5F7D6155F182}">
-  <dimension ref="A2:M46"/>
+  <dimension ref="A2:AR87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="R55" workbookViewId="0">
+      <selection activeCell="W80" sqref="W80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1569,47 +1658,137 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.5</v>
       </c>
       <c r="B4" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.7</v>
       </c>
       <c r="B5" s="1">
         <v>61.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3.1</v>
       </c>
       <c r="B6" s="1">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="V6" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="B7" s="1">
         <v>52.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R7" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="V7" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R8" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="V8" s="7">
+        <v>22.4</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6.8</v>
       </c>
@@ -1619,8 +1798,26 @@
       <c r="L9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R9" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="V9" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -1630,40 +1827,130 @@
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R10" s="7">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="V10" s="7">
+        <v>23.2</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8.9</v>
       </c>
       <c r="B11" s="1">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R11" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="V11" s="7">
+        <v>29.3</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9.5</v>
       </c>
       <c r="B12" s="1">
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R12" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>8</v>
+      </c>
+      <c r="V12" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="W12">
+        <v>8</v>
+      </c>
+      <c r="X12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11.1</v>
       </c>
       <c r="B13" s="1">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R13" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>9</v>
+      </c>
+      <c r="V13" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="W13">
+        <v>9</v>
+      </c>
+      <c r="X13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12.3</v>
       </c>
       <c r="B14" s="1">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R14" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="V14" s="7">
+        <v>40.4</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13.2</v>
       </c>
@@ -1677,32 +1964,104 @@
         <f>2.1</f>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R15" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>11</v>
+      </c>
+      <c r="V15" s="7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="W15">
+        <v>11</v>
+      </c>
+      <c r="X15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R16" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="S16">
+        <v>12</v>
+      </c>
+      <c r="T16">
+        <v>12</v>
+      </c>
+      <c r="V16" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="W16">
+        <v>12</v>
+      </c>
+      <c r="X16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15.5</v>
       </c>
       <c r="B17" s="1">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R17" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="S17">
+        <v>13</v>
+      </c>
+      <c r="T17">
+        <v>13</v>
+      </c>
+      <c r="V17" s="7">
+        <v>51.5</v>
+      </c>
+      <c r="W17">
+        <v>13</v>
+      </c>
+      <c r="X17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16.100000000000001</v>
       </c>
       <c r="B18" s="1">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R18" s="7">
+        <v>14</v>
+      </c>
+      <c r="S18">
+        <v>14</v>
+      </c>
+      <c r="T18">
+        <v>14</v>
+      </c>
+      <c r="V18" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="W18">
+        <v>14</v>
+      </c>
+      <c r="X18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16.7</v>
       </c>
@@ -1730,8 +2089,26 @@
         <f xml:space="preserve"> 0</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R19" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="S19">
+        <v>15</v>
+      </c>
+      <c r="T19">
+        <v>15</v>
+      </c>
+      <c r="V19" s="7">
+        <v>52.8</v>
+      </c>
+      <c r="W19">
+        <v>15</v>
+      </c>
+      <c r="X19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1752,8 +2129,26 @@
         <f>SQRT(G46/M2)</f>
         <v>18.527084902919835</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R20" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>16</v>
+      </c>
+      <c r="V20" s="7">
+        <v>53.4</v>
+      </c>
+      <c r="W20">
+        <v>16</v>
+      </c>
+      <c r="X20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19.2</v>
       </c>
@@ -1781,8 +2176,26 @@
         <f>H21+((H21*(1-POWER(H21,2)))/2*M2)-1.96*((1-POWER(H21,2))/SQRT(M2-1))</f>
         <v>-0.44965483838630099</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R21" s="7">
+        <v>16.7</v>
+      </c>
+      <c r="S21">
+        <v>17</v>
+      </c>
+      <c r="T21">
+        <v>17</v>
+      </c>
+      <c r="V21" s="7">
+        <v>61.3</v>
+      </c>
+      <c r="W21">
+        <v>17</v>
+      </c>
+      <c r="X21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20.5</v>
       </c>
@@ -1796,8 +2209,66 @@
         <f>H21+((H21*(1-POWER(H21,2)))/2*M2)+1.96*((1-POWER(H21,2))/SQRT(M2-1))</f>
         <v>0.44965483838630099</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R22" s="7">
+        <v>18</v>
+      </c>
+      <c r="S22">
+        <v>18</v>
+      </c>
+      <c r="T22">
+        <v>18</v>
+      </c>
+      <c r="V22" s="7">
+        <v>64</v>
+      </c>
+      <c r="W22">
+        <v>18</v>
+      </c>
+      <c r="X22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R23" s="7">
+        <v>19.2</v>
+      </c>
+      <c r="S23">
+        <v>19</v>
+      </c>
+      <c r="T23">
+        <v>19</v>
+      </c>
+      <c r="V23" s="7">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="W23">
+        <v>19</v>
+      </c>
+      <c r="X23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R24" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="S24">
+        <v>20</v>
+      </c>
+      <c r="T24">
+        <v>20</v>
+      </c>
+      <c r="V24" s="7">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="W24">
+        <v>20</v>
+      </c>
+      <c r="X24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +2288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1841,7 +2312,7 @@
         <v>845.3556249999998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1.5</v>
       </c>
@@ -1864,8 +2335,11 @@
         <f t="shared" ref="G27:G45" si="1">POWER(F27,2)</f>
         <v>574.80062500000008</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="V27" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1.7</v>
       </c>
@@ -1888,8 +2362,11 @@
         <f t="shared" si="1"/>
         <v>452.62562499999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="R28" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3.1</v>
       </c>
@@ -1913,7 +2390,7 @@
         <v>805.14062500000045</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -1936,8 +2413,20 @@
         <f t="shared" si="1"/>
         <v>163.20062499999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>25</v>
+      </c>
+      <c r="V30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -1960,8 +2449,23 @@
         <f t="shared" si="1"/>
         <v>145.80562500000008</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>20</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6.8</v>
       </c>
@@ -1984,8 +2488,20 @@
         <f t="shared" si="1"/>
         <v>131.67562500000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T32" s="1">
+        <v>64</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -2008,8 +2524,32 @@
         <f t="shared" si="1"/>
         <v>178.890625</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S33" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="T33" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>17</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8.9</v>
       </c>
@@ -2032,8 +2572,34 @@
         <f t="shared" si="1"/>
         <v>0.140625</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S34" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>19</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>20</v>
+      </c>
+      <c r="AB34">
+        <f>Z34-AA34</f>
+        <v>-19</v>
+      </c>
+      <c r="AC34">
+        <f>POWER(AB34,2)</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9.5</v>
       </c>
@@ -2056,8 +2622,34 @@
         <f t="shared" si="1"/>
         <v>0.45562500000000578</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S35" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T35" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <v>15</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>18</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" ref="AB35:AB53" si="2">Z35-AA35</f>
+        <v>-16</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" ref="AC35:AC53" si="3">POWER(AB35,2)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>11.1</v>
       </c>
@@ -2080,8 +2672,34 @@
         <f t="shared" si="1"/>
         <v>13.140625</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S36" s="1">
+        <v>6</v>
+      </c>
+      <c r="T36" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="V36">
+        <v>14</v>
+      </c>
+      <c r="Z36">
+        <v>3</v>
+      </c>
+      <c r="AA36">
+        <v>17</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>12.3</v>
       </c>
@@ -2104,8 +2722,34 @@
         <f t="shared" si="1"/>
         <v>17.015625</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S37" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="T37" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+      <c r="V37">
+        <v>13</v>
+      </c>
+      <c r="Z37">
+        <v>4</v>
+      </c>
+      <c r="AA37">
+        <v>19</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>13.2</v>
       </c>
@@ -2128,8 +2772,34 @@
         <f t="shared" si="1"/>
         <v>12.075625000000009</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S38" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T38" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="U38">
+        <v>8</v>
+      </c>
+      <c r="V38">
+        <v>16</v>
+      </c>
+      <c r="Z38">
+        <v>5</v>
+      </c>
+      <c r="AA38">
+        <v>15</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>14</v>
       </c>
@@ -2152,8 +2822,34 @@
         <f t="shared" si="1"/>
         <v>115.02562499999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S39" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="T39" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="U39">
+        <v>9</v>
+      </c>
+      <c r="V39">
+        <v>10</v>
+      </c>
+      <c r="Z39">
+        <v>6</v>
+      </c>
+      <c r="AA39">
+        <v>14</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>15.5</v>
       </c>
@@ -2176,8 +2872,34 @@
         <f t="shared" si="1"/>
         <v>286.45562499999988</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S40" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="T40" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
+      <c r="V40">
+        <v>11</v>
+      </c>
+      <c r="Z40">
+        <v>7</v>
+      </c>
+      <c r="AA40">
+        <v>13</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -2200,8 +2922,34 @@
         <f t="shared" si="1"/>
         <v>283.080625</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S41" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="T41" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="U41">
+        <v>11</v>
+      </c>
+      <c r="V41">
+        <v>9</v>
+      </c>
+      <c r="Z41">
+        <v>8</v>
+      </c>
+      <c r="AA41">
+        <v>16</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>16.7</v>
       </c>
@@ -2224,8 +2972,34 @@
         <f t="shared" si="1"/>
         <v>310.640625</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S42" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="T42" s="1">
+        <v>35.9</v>
+      </c>
+      <c r="U42">
+        <v>12</v>
+      </c>
+      <c r="V42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>9</v>
+      </c>
+      <c r="AA42">
+        <v>10</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>18</v>
       </c>
@@ -2248,8 +3022,34 @@
         <f t="shared" si="1"/>
         <v>813.67562499999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S43" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="T43" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="U43">
+        <v>13</v>
+      </c>
+      <c r="V43">
+        <v>12</v>
+      </c>
+      <c r="Z43">
+        <v>10</v>
+      </c>
+      <c r="AA43">
+        <v>11</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>19.2</v>
       </c>
@@ -2272,8 +3072,34 @@
         <f t="shared" si="1"/>
         <v>913.55062499999985</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S44" s="1">
+        <v>14</v>
+      </c>
+      <c r="T44" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="U44">
+        <v>14</v>
+      </c>
+      <c r="V44">
+        <v>7</v>
+      </c>
+      <c r="Z44">
+        <v>11</v>
+      </c>
+      <c r="AA44">
+        <v>9</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>20.5</v>
       </c>
@@ -2296,8 +3122,34 @@
         <f t="shared" si="1"/>
         <v>802.30562499999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S45" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="T45" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="U45">
+        <v>15</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+      <c r="Z45">
+        <v>12</v>
+      </c>
+      <c r="AA45">
+        <v>8</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>9</v>
       </c>
@@ -2312,8 +3164,673 @@
         <f>SUM(G26:G45)</f>
         <v>6865.0574999999999</v>
       </c>
+      <c r="S46" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="T46" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="U46">
+        <v>16</v>
+      </c>
+      <c r="V46">
+        <v>6</v>
+      </c>
+      <c r="Z46">
+        <v>13</v>
+      </c>
+      <c r="AA46">
+        <v>12</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AF46">
+        <f>6/(M2*(M2*M2-1))</f>
+        <v>7.5187969924812035E-4</v>
+      </c>
+      <c r="AG46">
+        <f>AF46*AC54</f>
+        <v>1.9639097744360903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S47" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="T47" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="U47">
+        <v>17</v>
+      </c>
+      <c r="V47">
+        <v>4</v>
+      </c>
+      <c r="Z47">
+        <v>14</v>
+      </c>
+      <c r="AA47">
+        <v>7</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S48" s="1">
+        <v>18</v>
+      </c>
+      <c r="T48" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="U48">
+        <v>18</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>15</v>
+      </c>
+      <c r="AA48">
+        <v>5</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AF48">
+        <f>T60*SQRT(M2-2)</f>
+        <v>-4.0895228277345286</v>
+      </c>
+      <c r="AG48">
+        <f>SQRT(1-T60*T60)</f>
+        <v>0.26622912452728675</v>
+      </c>
+    </row>
+    <row r="49" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="S49" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="T49" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U49">
+        <v>19</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>16</v>
+      </c>
+      <c r="AA49">
+        <v>6</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="S50" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="T50" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="U50">
+        <v>20</v>
+      </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="Z50">
+        <v>17</v>
+      </c>
+      <c r="AA50">
+        <v>4</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="Z51">
+        <v>18</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="Z52">
+        <v>19</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="3"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="Z53">
+        <v>20</v>
+      </c>
+      <c r="AA53">
+        <v>3</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="3"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="AB54" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC54" s="9">
+        <f>SUM(AC34:AC53)</f>
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="57" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="AC57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>20</v>
+      </c>
+      <c r="AE58">
+        <f>-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="59" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="AC59">
+        <v>2</v>
+      </c>
+      <c r="AD59">
+        <v>18</v>
+      </c>
+      <c r="AE59">
+        <f>-1+1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="60" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="S60" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T60" s="9">
+        <f>1-AG46</f>
+        <v>-0.96390977443609027</v>
+      </c>
+      <c r="U60" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC60">
+        <v>3</v>
+      </c>
+      <c r="AD60">
+        <v>17</v>
+      </c>
+      <c r="AE60">
+        <f>1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="61" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="AC61">
+        <v>4</v>
+      </c>
+      <c r="AD61">
+        <v>19</v>
+      </c>
+      <c r="AE61">
+        <f>-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1-1</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="62" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="S62" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T62" s="9">
+        <f>AF48/AG48</f>
+        <v>-15.360914531780985</v>
+      </c>
+      <c r="AC62">
+        <v>5</v>
+      </c>
+      <c r="AD62">
+        <v>15</v>
+      </c>
+      <c r="AE62">
+        <f>-1-1+1-1-1-1-1-1-1-1-1-1-1-1-1</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="63" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="AC63">
+        <v>6</v>
+      </c>
+      <c r="AD63">
+        <v>14</v>
+      </c>
+      <c r="AE63">
+        <f>-1+1-1-1-1-1-1-1-1-1-1-1-1-1</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="64" spans="19:31" x14ac:dyDescent="0.25">
+      <c r="S64" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC64">
+        <v>7</v>
+      </c>
+      <c r="AD64">
+        <v>13</v>
+      </c>
+      <c r="AE64">
+        <f>1-1-1-1-1-1-1-1-1-1-1-1-1</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="65" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="AC65">
+        <v>8</v>
+      </c>
+      <c r="AD65">
+        <v>16</v>
+      </c>
+      <c r="AE65">
+        <f>-1-1-1-1-1-1-1-1-1-1-1-1</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="66" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="S66" t="s">
+        <v>35</v>
+      </c>
+      <c r="U66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AC66">
+        <v>9</v>
+      </c>
+      <c r="AD66">
+        <v>10</v>
+      </c>
+      <c r="AE66">
+        <f>1-1-1+1-1-1-1-1-1-1-1</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="67" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="AC67">
+        <v>10</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <f>-1-1+1-1-1-1-1-1-1-1</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="68" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="AC68">
+        <v>11</v>
+      </c>
+      <c r="AD68">
+        <v>9</v>
+      </c>
+      <c r="AE68">
+        <f>-1+1-1-1-1-1-1-1-1</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="69" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="AC69">
+        <v>12</v>
+      </c>
+      <c r="AD69">
+        <v>8</v>
+      </c>
+      <c r="AE69">
+        <f>1-1-1-1-1-1-1-1</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="70" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="AC70">
+        <v>13</v>
+      </c>
+      <c r="AD70">
+        <v>12</v>
+      </c>
+      <c r="AE70">
+        <f>-1-1-1-1-1-1-1</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="71" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="AC71">
+        <v>14</v>
+      </c>
+      <c r="AD71">
+        <v>7</v>
+      </c>
+      <c r="AE71">
+        <f>-1-1-1-1-1-1</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="72" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="AC72">
+        <v>15</v>
+      </c>
+      <c r="AD72">
+        <v>5</v>
+      </c>
+      <c r="AE72">
+        <f>1-1-1-1-1</f>
+        <v>-3</v>
+      </c>
+      <c r="AJ72">
+        <f>AJ75*AK75</f>
+        <v>-50.785928428215129</v>
+      </c>
+    </row>
+    <row r="73" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="AC73">
+        <v>16</v>
+      </c>
+      <c r="AD73">
+        <v>6</v>
+      </c>
+      <c r="AE73">
+        <f>-1-1-1-1</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="74" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="AC74">
+        <v>17</v>
+      </c>
+      <c r="AD74">
+        <v>4</v>
+      </c>
+      <c r="AE74">
+        <f>-1-1-1</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="75" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AC75">
+        <v>18</v>
+      </c>
+      <c r="AD75">
+        <v>2</v>
+      </c>
+      <c r="AE75">
+        <f>-1+1</f>
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <f>2*AE78</f>
+        <v>-330</v>
+      </c>
+      <c r="AH75">
+        <f>M2*(M2-1)</f>
+        <v>380</v>
+      </c>
+      <c r="AJ75">
+        <f>3*AE80</f>
+        <v>-2.6052631578947372</v>
+      </c>
+      <c r="AK75">
+        <f>SQRT(M2*(M2-1))</f>
+        <v>19.493588689617926</v>
+      </c>
+    </row>
+    <row r="76" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>4</v>
+      </c>
+      <c r="R76">
+        <v>9</v>
+      </c>
+      <c r="AC76">
+        <v>19</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77">
+        <v>14</v>
+      </c>
+      <c r="AC77">
+        <v>20</v>
+      </c>
+      <c r="AD77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>6</v>
+      </c>
+      <c r="R78">
+        <v>6</v>
+      </c>
+      <c r="AE78" s="9">
+        <f>SUM(AE58:AE76)</f>
+        <v>-165</v>
+      </c>
+      <c r="AJ78">
+        <f>SQRT(2*(2*M2+5))</f>
+        <v>9.4868329805051381</v>
+      </c>
+    </row>
+    <row r="79" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>7</v>
+      </c>
+      <c r="R79">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="80" spans="17:37" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>8</v>
+      </c>
+      <c r="R80">
+        <v>7</v>
+      </c>
+      <c r="AD80" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE80" s="9">
+        <f>AG75/AH75</f>
+        <v>-0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="81" spans="17:44" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>9</v>
+      </c>
+      <c r="R81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="17:44" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>10</v>
+      </c>
+      <c r="R82">
+        <v>8</v>
+      </c>
+      <c r="AD82" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE82" s="9">
+        <f>AJ72/AJ78</f>
+        <v>-5.3533068973151643</v>
+      </c>
+    </row>
+    <row r="83" spans="17:44" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>11</v>
+      </c>
+      <c r="R83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="17:44" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>12</v>
+      </c>
+      <c r="R84">
+        <v>13</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="17:44" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>13</v>
+      </c>
+      <c r="R85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="17:44" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>14</v>
+      </c>
+      <c r="R86">
+        <v>5</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE86" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF86" s="9"/>
+      <c r="AG86" s="9"/>
+      <c r="AH86" s="9"/>
+      <c r="AI86" s="9"/>
+      <c r="AJ86" s="9"/>
+      <c r="AK86" s="9"/>
+      <c r="AL86" s="9"/>
+      <c r="AM86" s="9"/>
+      <c r="AN86" s="9"/>
+      <c r="AO86" s="9"/>
+      <c r="AP86" s="9"/>
+      <c r="AQ86" s="9"/>
+      <c r="AR86" s="9"/>
+    </row>
+    <row r="87" spans="17:44" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>15</v>
+      </c>
+      <c r="R87">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="V5:V24">
+    <sortCondition ref="V5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
